--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-1.xlsx
@@ -518,12 +518,12 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR TAS W16-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR TAS W16-01-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D51507-2769-4AC5-BDA5-40588C851DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2148697-13C6-4BBF-B5EF-9474AFCC0D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:AB594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
         <v>42534</v>
       </c>
       <c r="G4">
-        <v>4.6550000000000002</v>
+        <v>4.6550000000000001E-2</v>
       </c>
       <c r="H4">
         <v>1.4433756729740699E-2</v>
@@ -776,7 +776,7 @@
         <v>42587</v>
       </c>
       <c r="G8">
-        <v>3.9575</v>
+        <v>3.9574999999999999E-2</v>
       </c>
       <c r="H8">
         <v>4.4791182167922397E-2</v>
@@ -1003,7 +1003,7 @@
         <v>42534</v>
       </c>
       <c r="G21">
-        <v>4.49</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="H21">
         <v>4.0414518843274003E-2</v>
@@ -1062,7 +1062,7 @@
         <v>42587</v>
       </c>
       <c r="G25">
-        <v>4.335</v>
+        <v>4.335E-2</v>
       </c>
       <c r="H25">
         <v>2.0207259421637001E-2</v>
@@ -1289,7 +1289,7 @@
         <v>42534</v>
       </c>
       <c r="G38">
-        <v>4.585</v>
+        <v>4.5850000000000002E-2</v>
       </c>
       <c r="H38">
         <v>8.6602540378444195E-3</v>
@@ -1348,7 +1348,7 @@
         <v>42587</v>
       </c>
       <c r="G42">
-        <v>3.6025</v>
+        <v>3.6025000000000001E-2</v>
       </c>
       <c r="H42">
         <v>2.4622144504490202E-2</v>
